--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\Kolodiy\KURS_RABOTA\dlu-kursocha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FDB5CC-8912-4360-B303-E0FCEEC28BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71C70B3-9EC3-407D-A9ED-E221395FC627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="B1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,10 +420,10 @@
         <v>7</v>
       </c>
       <c r="J1">
-        <v>22.5</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="L1">
-        <v>12500</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
@@ -472,7 +472,7 @@
       </c>
       <c r="L3" s="1">
         <f>($J$1*H3)-$L$1</f>
-        <v>7750</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -488,7 +488,7 @@
       </c>
       <c r="L4" s="1">
         <f>($J$1*H4)-$L$1</f>
-        <v>10000</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -504,7 +504,7 @@
       </c>
       <c r="L5" s="1">
         <f>($J$1*H5)-$L$1</f>
-        <v>55000</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
@@ -517,7 +517,7 @@
       </c>
       <c r="L6" s="1">
         <f>($J$1*H6)-$L$1</f>
-        <v>61750</v>
+        <v>61.25</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\Kolodiy\KURS_RABOTA\dlu-kursocha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71C70B3-9EC3-407D-A9ED-E221395FC627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7570D975-B44B-4870-A633-00450AFA524F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="B1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,15 +457,15 @@
         <v>3300</v>
       </c>
       <c r="F3" s="2">
-        <f>B3/C3</f>
-        <v>1.2412121212121212</v>
+        <f>C3/B3</f>
+        <v>0.8056640625</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" s="1">
         <f>H3*$F$3</f>
-        <v>1117.090909090909</v>
+        <v>725.09765625</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -481,7 +481,7 @@
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I6" si="0">H4*$F$3</f>
-        <v>1241.2121212121212</v>
+        <v>805.6640625</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -497,7 +497,7 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>3723.6363636363635</v>
+        <v>2416.9921875</v>
       </c>
       <c r="J5">
         <v>55</v>
@@ -513,7 +513,7 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>4096</v>
+        <v>2658.69140625</v>
       </c>
       <c r="L6" s="1">
         <f>($J$1*H6)-$L$1</f>
@@ -567,7 +567,7 @@
       </c>
       <c r="I31" s="1">
         <f>H31*$F$3</f>
-        <v>1117.090909090909</v>
+        <v>725.09765625</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -579,34 +579,34 @@
     </row>
     <row r="32" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H32">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" ref="I32:I34" si="1">H32*$F$3</f>
-        <v>1.2412121212121212</v>
+        <v>805.6640625</v>
       </c>
       <c r="J32">
         <v>10</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" ref="L32:L34" si="2">($J$29*H32)-$L$29</f>
-        <v>9.5</v>
+        <v>22487</v>
       </c>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.35">
       <c r="H33">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="1"/>
-        <v>3.7236363636363636</v>
+        <v>2416.9921875</v>
       </c>
       <c r="J33">
         <v>55</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="2"/>
-        <v>54.5</v>
+        <v>67487</v>
       </c>
     </row>
     <row r="34" spans="8:12" x14ac:dyDescent="0.35">
@@ -615,7 +615,7 @@
       </c>
       <c r="I34" s="1">
         <f t="shared" si="1"/>
-        <v>4096</v>
+        <v>2658.69140625</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="2"/>
